--- a/发票模板.xlsx
+++ b/发票模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF26EF-F823-4905-93F1-847635231FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3C9FD-1406-4C88-A67C-3588DDE062F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="2918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="2911">
   <si>
     <t>填表说明：
 1、项目名称：无需写商品和服务税收分类简称（*号以及中间内容）。
@@ -8799,27 +8799,6 @@
   </si>
   <si>
     <t>租赁期止</t>
-  </si>
-  <si>
-    <t>N0785（电商）a牛卡缝线练习本</t>
-  </si>
-  <si>
-    <t>16K60型</t>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>1060202010000000000</t>
-  </si>
-  <si>
-    <t>TG78系列混装牛卡缝线本（方格双竖线英语）</t>
-  </si>
-  <si>
-    <t>YS定制（混装）牛卡缝线簿</t>
-  </si>
-  <si>
-    <t>运费</t>
   </si>
 </sst>
 </file>
@@ -9826,11 +9805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9921,125 +9900,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2911</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2912</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E4">
-        <v>6000</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>4800</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2916</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2912</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E5">
-        <v>12000</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
-        <v>9600</v>
-      </c>
-      <c r="H5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2912</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E6">
-        <v>12000</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-      <c r="G6">
-        <v>9600</v>
-      </c>
-      <c r="H6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2912</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E7">
-        <v>6000</v>
-      </c>
-      <c r="F7">
-        <v>0.8</v>
-      </c>
-      <c r="G7">
-        <v>4800</v>
-      </c>
-      <c r="H7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>2917</v>
-      </c>
-      <c r="G8">
-        <v>-540</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="68" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J995" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"简易征收,稀土产品,免税,不征税,先征后退,100%先征后退,50%先征后退,按3%简易征收,按5%简易征收,按5%简易征收减按1.5%计证,即征即退30%,即征即退50%,即征即退70%,即征即退100%,超税负3%即征即退,超税负8%即征即退,超税负12%即征即退,超税负6%即征即退"</formula1>
     </dataValidation>
   </dataValidations>
